--- a/BC-StudentCentralReq-Testcases.xlsx
+++ b/BC-StudentCentralReq-Testcases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6e8abbef9b4f2bf/Documents/GitHub/BCStudentRequestForm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40BA2A-6F8F-4D11-9B5B-94C7B82F662B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{2C8C365E-9D0B-4EE5-B085-3923A092A722}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{C81C7C4C-5CA3-45D4-8F60-07FAF92A597B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="2" xr2:uid="{C81C7C4C-5CA3-45D4-8F60-07FAF92A597B}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary Report" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="177">
   <si>
     <t>Version</t>
   </si>
@@ -586,6 +586,36 @@
   </si>
   <si>
     <t>Non-Functional and exploratory</t>
+  </si>
+  <si>
+    <t>TC_ST_15</t>
+  </si>
+  <si>
+    <t>TC_ST_015</t>
+  </si>
+  <si>
+    <t>Verify the Submit button is displaying correct page when transaction is sucessful</t>
+  </si>
+  <si>
+    <t>Enter all the fields and click on submit button</t>
+  </si>
+  <si>
+    <t>Name:Test
+StudentID: Test123
+Email Id: Test@test.edu
+Subject:Test
+Description:Test
+Service Area: Enrollment
+Issue Area: Others and click on submit button</t>
+  </si>
+  <si>
+    <t>On selecing Submit button after input values are entered the resultant page should be display correct message along with other links.</t>
+  </si>
+  <si>
+    <t>On selecing Submit button after input values are entered the resultant page  displays a Thank you message along with other links.</t>
+  </si>
+  <si>
+    <t>As Service Area is a mandatory field * mark should be displayed in UI after the field name.</t>
   </si>
 </sst>
 </file>
@@ -709,16 +739,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -763,6 +790,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,7 +836,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{371DA1CF-87EB-4257-BB4D-5B37A587A300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -826,23 +857,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1152,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A8D19C-886D-4559-87F2-4C2974C66CC3}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,128 +1184,128 @@
     <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>43362</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>43363</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:6" s="13" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="B10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8">
-        <v>6</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>5</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>5</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1299,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF760532-C9B9-4F70-9886-EE7E7BA4ADB4}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,279 +1331,288 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>43362</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>43363</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="16" spans="1:5" s="14" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="E16" s="20" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="16" spans="1:5" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="E16" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26"/>
-      <c r="C18" s="12" t="s">
+    <row r="17" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="25"/>
+      <c r="C18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="12" t="s">
+      <c r="R18" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-    </row>
-    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="12" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+    </row>
+    <row r="20" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="25" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="O20" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="O20" s="25" t="s">
+      <c r="P20" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="P20" s="25" t="s">
+      <c r="Q20" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="Q20" s="25" t="s">
+      <c r="R20" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="25" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="25" t="s">
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-    </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="12" t="s">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="25" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="M22" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1594,11 +1621,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186AC603-7EB7-4459-ADB0-0C670445C16A}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1615,43 +1642,43 @@
     <col min="11" max="11" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B2" t="s">
@@ -1680,7 +1707,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B3" t="s">
@@ -1712,7 +1739,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B4" t="s">
@@ -1747,7 +1774,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B5" t="s">
@@ -1782,7 +1809,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B6" t="s">
@@ -1813,8 +1840,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B7" t="s">
@@ -1845,8 +1872,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B8" t="s">
@@ -1873,9 +1900,12 @@
       <c r="I8" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B9" t="s">
@@ -1904,7 +1934,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>114</v>
       </c>
       <c r="B10" t="s">
@@ -1935,145 +1965,175 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>112</v>
+    <row r="11" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="B11" t="s">
         <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
+        <v>172</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B12" t="s">
         <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>126</v>
+    <row r="13" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="B13" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>127</v>
+        <v>119</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="B14" t="s">
         <v>151</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>46</v>
+        <v>137</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>114</v>
+      <c r="A15" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B15" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2105,40 +2165,40 @@
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:10" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B2" t="s">
@@ -2159,13 +2219,13 @@
       <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2183,10 +2243,10 @@
       <c r="G3" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2207,10 +2267,10 @@
       <c r="G4" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2231,16 +2291,16 @@
       <c r="G5" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
